--- a/src/main/files/results.xlsx
+++ b/src/main/files/results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>№</t>
   </si>
@@ -26,7 +26,7 @@
     <t>Foxie</t>
   </si>
   <si>
-    <t/>
+    <t>abba</t>
   </si>
   <si>
     <t>fff</t>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>gg</t>
+  </si>
+  <si>
+    <t>оо</t>
   </si>
 </sst>
 </file>
@@ -83,7 +86,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -119,7 +122,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="4">
@@ -166,6 +169,17 @@
         <v>22.0</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
